--- a/User testing/User Test 1 Data.xlsx
+++ b/User testing/User Test 1 Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3aa727898a13c545/Folders/文档/GitHub/VirtualRagdollCatcafe/User testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="11_F25DC773A252ABDACC1048FB211E51C05BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A96A7199-6029-4F84-A810-6B751F14CFBE}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="11_F25DC773A252ABDACC1048FB211E51C05BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B34115A-D5BB-41DE-B8A4-CFC427956136}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
   <si>
     <t xml:space="preserve">Windows Version </t>
   </si>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t>5. Too much memory consumption.</t>
+  </si>
+  <si>
+    <t>6. When in China &amp; not using a VPN, the cha tpage &amp; translate page freeze and the program carshes.</t>
+  </si>
+  <si>
+    <t>Win11 22H2</t>
+  </si>
+  <si>
+    <t>22621.1848</t>
   </si>
 </sst>
 </file>
@@ -138,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -154,6 +163,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,7 +454,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -596,6 +608,50 @@
         <v>17</v>
       </c>
     </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>22</v>
@@ -705,20 +761,22 @@
       <c r="N15" s="5"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
+      <c r="A16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
@@ -897,13 +955,14 @@
       <c r="N27" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A15:N15"/>
+    <mergeCell ref="A16:N16"/>
     <mergeCell ref="A10:N10"/>
     <mergeCell ref="A11:N11"/>
     <mergeCell ref="A12:N12"/>
     <mergeCell ref="A13:N13"/>
     <mergeCell ref="A14:N14"/>
-    <mergeCell ref="A15:N15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
